--- a/Code/Results/Cases/Case_8_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9954046776707106</v>
+        <v>0.9953783733880661</v>
       </c>
       <c r="D2">
-        <v>1.017500152031533</v>
+        <v>1.017362133847993</v>
       </c>
       <c r="E2">
-        <v>1.002485405779089</v>
+        <v>1.002468332719629</v>
       </c>
       <c r="F2">
-        <v>1.014631563524339</v>
+        <v>1.014620168408374</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045397618746686</v>
+        <v>1.045327563207132</v>
       </c>
       <c r="J2">
-        <v>1.017723708180882</v>
+        <v>1.017698200722879</v>
       </c>
       <c r="K2">
-        <v>1.028720949028705</v>
+        <v>1.028584771795697</v>
       </c>
       <c r="L2">
-        <v>1.013910223211548</v>
+        <v>1.013893386527073</v>
       </c>
       <c r="M2">
-        <v>1.02589075248044</v>
+        <v>1.025879510415824</v>
       </c>
       <c r="N2">
-        <v>1.019168992581038</v>
+        <v>1.019520404589629</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.02906309197325</v>
+        <v>1.029054194488636</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031378352074675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031290919533548</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019762525805317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9994850925360826</v>
+        <v>0.9990683983900297</v>
       </c>
       <c r="D3">
-        <v>1.020198721617842</v>
+        <v>1.019704828178528</v>
       </c>
       <c r="E3">
-        <v>1.0057068662937</v>
+        <v>1.005351486948627</v>
       </c>
       <c r="F3">
-        <v>1.01780745788682</v>
+        <v>1.0176271870706</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046270357179845</v>
+        <v>1.046019398358819</v>
       </c>
       <c r="J3">
-        <v>1.019989804297246</v>
+        <v>1.019584492062774</v>
       </c>
       <c r="K3">
-        <v>1.030579518002193</v>
+        <v>1.030091640384433</v>
       </c>
       <c r="L3">
-        <v>1.016267243773278</v>
+        <v>1.01591634938227</v>
       </c>
       <c r="M3">
-        <v>1.02821744834532</v>
+        <v>1.028039385306361</v>
       </c>
       <c r="N3">
-        <v>1.021438306813814</v>
+        <v>1.020578063886094</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030904543140892</v>
+        <v>1.030763616260701</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03268985825192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032353457773752</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020061306474086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002071973560772</v>
+        <v>1.00141075051403</v>
       </c>
       <c r="D4">
-        <v>1.021910167513985</v>
+        <v>1.0211924684898</v>
       </c>
       <c r="E4">
-        <v>1.007755040377038</v>
+        <v>1.007187376640797</v>
       </c>
       <c r="F4">
-        <v>1.019829503273453</v>
+        <v>1.01954368951737</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046808433837971</v>
+        <v>1.046443498701948</v>
       </c>
       <c r="J4">
-        <v>1.021422826134988</v>
+        <v>1.020778437863517</v>
       </c>
       <c r="K4">
-        <v>1.031751156733126</v>
+        <v>1.031041674331085</v>
       </c>
       <c r="L4">
-        <v>1.017760761349569</v>
+        <v>1.017199823483308</v>
       </c>
       <c r="M4">
-        <v>1.029694352412976</v>
+        <v>1.029411825606429</v>
       </c>
       <c r="N4">
-        <v>1.022873363706935</v>
+        <v>1.021247514521742</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.03207342854339</v>
+        <v>1.031849824828361</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033519227260647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033026211080926</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02024694828388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003149832441614</v>
+        <v>1.002387302362644</v>
       </c>
       <c r="D5">
-        <v>1.022625134759165</v>
+        <v>1.021814613693811</v>
       </c>
       <c r="E5">
-        <v>1.008610184979092</v>
+        <v>1.007954481451647</v>
       </c>
       <c r="F5">
-        <v>1.020673093116052</v>
+        <v>1.020343607378135</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047030174928694</v>
+        <v>1.046617919254482</v>
       </c>
       <c r="J5">
-        <v>1.0220201554381</v>
+        <v>1.021276457393431</v>
       </c>
       <c r="K5">
-        <v>1.032240000254898</v>
+        <v>1.031438512338883</v>
       </c>
       <c r="L5">
-        <v>1.018383769619254</v>
+        <v>1.017735625402388</v>
       </c>
       <c r="M5">
-        <v>1.030309743804597</v>
+        <v>1.029983945317921</v>
       </c>
       <c r="N5">
-        <v>1.023471541286172</v>
+        <v>1.0215267551697</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.03256047518193</v>
+        <v>1.032302624594578</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033872117344374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033314758502647</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020324204509406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003333398937759</v>
+        <v>1.002553540851001</v>
       </c>
       <c r="D6">
-        <v>1.022749059316992</v>
+        <v>1.021922770676351</v>
       </c>
       <c r="E6">
-        <v>1.008756359773097</v>
+        <v>1.008085580623429</v>
       </c>
       <c r="F6">
-        <v>1.020815721115878</v>
+        <v>1.020478768230423</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047069251818871</v>
+        <v>1.046648955199861</v>
       </c>
       <c r="J6">
-        <v>1.022123223531846</v>
+        <v>1.021362526068023</v>
       </c>
       <c r="K6">
-        <v>1.032325958390669</v>
+        <v>1.03150883659438</v>
       </c>
       <c r="L6">
-        <v>1.018490993805163</v>
+        <v>1.017827911879962</v>
       </c>
       <c r="M6">
-        <v>1.03041409725511</v>
+        <v>1.03008089775737</v>
       </c>
       <c r="N6">
-        <v>1.023574755748434</v>
+        <v>1.021575014000782</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03264306485949</v>
+        <v>1.032379356831573</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033941714649106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033374174612134</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020338316476549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002095266503481</v>
+        <v>1.001453219020507</v>
       </c>
       <c r="D7">
-        <v>1.021931352668158</v>
+        <v>1.021226408918462</v>
       </c>
       <c r="E7">
-        <v>1.007774755586991</v>
+        <v>1.007224667484232</v>
       </c>
       <c r="F7">
-        <v>1.019844627231318</v>
+        <v>1.019567103464972</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046817319852343</v>
+        <v>1.046458868901133</v>
       </c>
       <c r="J7">
-        <v>1.02143945545992</v>
+        <v>1.020813747108892</v>
       </c>
       <c r="K7">
-        <v>1.031769184466252</v>
+        <v>1.031072308074697</v>
       </c>
       <c r="L7">
-        <v>1.017777272881113</v>
+        <v>1.017233699763014</v>
       </c>
       <c r="M7">
-        <v>1.029706379407827</v>
+        <v>1.029432046037444</v>
       </c>
       <c r="N7">
-        <v>1.022890016647416</v>
+        <v>1.021320094524434</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032082947216374</v>
+        <v>1.031865828138706</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033552256040864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033070161938753</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020255709951908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968058340882863</v>
+        <v>0.9967121917876987</v>
       </c>
       <c r="D8">
-        <v>1.018433547409202</v>
+        <v>1.018219094527207</v>
       </c>
       <c r="E8">
-        <v>1.003591978605679</v>
+        <v>1.003519824161055</v>
       </c>
       <c r="F8">
-        <v>1.015716545028925</v>
+        <v>1.015675997365322</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045705291450939</v>
+        <v>1.045596399907738</v>
       </c>
       <c r="J8">
-        <v>1.018507099791004</v>
+        <v>1.01841619815154</v>
       </c>
       <c r="K8">
-        <v>1.02936948214871</v>
+        <v>1.029157804763801</v>
       </c>
       <c r="L8">
-        <v>1.014723513106154</v>
+        <v>1.014652327354522</v>
       </c>
       <c r="M8">
-        <v>1.02668775231031</v>
+        <v>1.026647732832394</v>
       </c>
       <c r="N8">
-        <v>1.019953496697104</v>
+        <v>1.020083050196723</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029693873834751</v>
+        <v>1.02966220061613</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031860050395482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031721502557095</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019882912096958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9870429761236761</v>
+        <v>0.9879156833315581</v>
       </c>
       <c r="D9">
-        <v>1.011976326806851</v>
+        <v>1.012633552523283</v>
       </c>
       <c r="E9">
-        <v>0.9959180525715856</v>
+        <v>0.9966814330085445</v>
       </c>
       <c r="F9">
-        <v>1.00817247179164</v>
+        <v>1.008551561010105</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043528153154926</v>
+        <v>1.043861064528816</v>
       </c>
       <c r="J9">
-        <v>1.013061725946095</v>
+        <v>1.013902507369409</v>
       </c>
       <c r="K9">
-        <v>1.024878039527368</v>
+        <v>1.025524931362774</v>
       </c>
       <c r="L9">
-        <v>1.009077705524609</v>
+        <v>1.00982858208932</v>
       </c>
       <c r="M9">
-        <v>1.02113433342584</v>
+        <v>1.021507402176017</v>
       </c>
       <c r="N9">
-        <v>1.014500389796743</v>
+        <v>1.017571667654202</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025298633902513</v>
+        <v>1.025593899144626</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028681026637682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029149290131349</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.01914675260312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9803331018153905</v>
+        <v>0.9819852293415202</v>
       </c>
       <c r="D10">
-        <v>1.007552848711205</v>
+        <v>1.008885478058857</v>
       </c>
       <c r="E10">
-        <v>0.9906914961885112</v>
+        <v>0.9921305796267093</v>
       </c>
       <c r="F10">
-        <v>1.003282150738968</v>
+        <v>1.004000619867964</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041971031741935</v>
+        <v>1.042645009921364</v>
       </c>
       <c r="J10">
-        <v>1.009349342992846</v>
+        <v>1.010932284229078</v>
       </c>
       <c r="K10">
-        <v>1.021787060170353</v>
+        <v>1.023096134552209</v>
       </c>
       <c r="L10">
-        <v>1.005230877361162</v>
+        <v>1.006643387551191</v>
       </c>
       <c r="M10">
-        <v>1.017592396732743</v>
+        <v>1.018298015633171</v>
       </c>
       <c r="N10">
-        <v>1.010782734833884</v>
+        <v>1.016142242463908</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022547814222935</v>
+        <v>1.023106242243515</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026512463556922</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027450625845743</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018652498358815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9782505074562968</v>
+        <v>0.9802476699796114</v>
       </c>
       <c r="D11">
-        <v>1.006218730534588</v>
+        <v>1.007827750940907</v>
       </c>
       <c r="E11">
-        <v>0.9891776886535889</v>
+        <v>0.9909187216755122</v>
       </c>
       <c r="F11">
-        <v>1.003721166685532</v>
+        <v>1.004583024326139</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041579838523222</v>
+        <v>1.042393082511956</v>
       </c>
       <c r="J11">
-        <v>1.008556942303857</v>
+        <v>1.010465898299493</v>
       </c>
       <c r="K11">
-        <v>1.021024315937051</v>
+        <v>1.022603541875603</v>
       </c>
       <c r="L11">
-        <v>1.004306625118346</v>
+        <v>1.006013954007303</v>
       </c>
       <c r="M11">
-        <v>1.01857324679932</v>
+        <v>1.0194190259899</v>
       </c>
       <c r="N11">
-        <v>1.009989208845026</v>
+        <v>1.016330639075588</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023767804405715</v>
+        <v>1.024436806356874</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026006400986463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027138770630737</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018595213646213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.977768097976951</v>
+        <v>0.9798436827395938</v>
       </c>
       <c r="D12">
-        <v>1.005922859156998</v>
+        <v>1.00759286980047</v>
       </c>
       <c r="E12">
-        <v>0.9888777159950753</v>
+        <v>0.9906853784647514</v>
       </c>
       <c r="F12">
-        <v>1.004749099809535</v>
+        <v>1.005639733600349</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041533722191346</v>
+        <v>1.042377601138187</v>
       </c>
       <c r="J12">
-        <v>1.008544091742158</v>
+        <v>1.010526288269979</v>
       </c>
       <c r="K12">
-        <v>1.020937459494066</v>
+        <v>1.022576033952423</v>
       </c>
       <c r="L12">
-        <v>1.004221149280482</v>
+        <v>1.005993234445504</v>
       </c>
       <c r="M12">
-        <v>1.019785876665328</v>
+        <v>1.020659677002743</v>
       </c>
       <c r="N12">
-        <v>1.009976340034056</v>
+        <v>1.016559686911932</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025058084408408</v>
+        <v>1.025749010043794</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025944989265112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027119321667345</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018614867602609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9784923140838785</v>
+        <v>0.9804316589697488</v>
       </c>
       <c r="D13">
-        <v>1.00641698543979</v>
+        <v>1.007976669062969</v>
       </c>
       <c r="E13">
-        <v>0.9894965634488651</v>
+        <v>0.9911817213718751</v>
       </c>
       <c r="F13">
-        <v>1.006323194331757</v>
+        <v>1.007151592315609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041761318583532</v>
+        <v>1.0425494998342</v>
       </c>
       <c r="J13">
-        <v>1.009139592101562</v>
+        <v>1.010992166478552</v>
       </c>
       <c r="K13">
-        <v>1.0213786456551</v>
+        <v>1.022909101663008</v>
       </c>
       <c r="L13">
-        <v>1.004783076942584</v>
+        <v>1.006435229273584</v>
       </c>
       <c r="M13">
-        <v>1.02128661591245</v>
+        <v>1.0220994716768</v>
       </c>
       <c r="N13">
-        <v>1.010572686072276</v>
+        <v>1.016777603604485</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026524657095054</v>
+        <v>1.02716722811991</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026254406853171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.0273520479542</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018699368142881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9795341698673057</v>
+        <v>0.9812883244944327</v>
       </c>
       <c r="D14">
-        <v>1.007113959559319</v>
+        <v>1.008524492535817</v>
       </c>
       <c r="E14">
-        <v>0.9903359480953664</v>
+        <v>0.9918569085537748</v>
       </c>
       <c r="F14">
-        <v>1.007644246127808</v>
+        <v>1.008391604987963</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042040882024397</v>
+        <v>1.042753817994784</v>
       </c>
       <c r="J14">
-        <v>1.009820762434127</v>
+        <v>1.011497594699786</v>
       </c>
       <c r="K14">
-        <v>1.021919747098583</v>
+        <v>1.023304180649494</v>
       </c>
       <c r="L14">
-        <v>1.00545965640796</v>
+        <v>1.006951215947677</v>
       </c>
       <c r="M14">
-        <v>1.022440210473672</v>
+        <v>1.023173747890454</v>
       </c>
       <c r="N14">
-        <v>1.011254823744844</v>
+        <v>1.016923945549726</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027611553970935</v>
+        <v>1.028191343696475</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026638433428257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027632960384902</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018788111557753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9800631682070153</v>
+        <v>0.9817269920611426</v>
       </c>
       <c r="D15">
-        <v>1.007466113452289</v>
+        <v>1.008803889891993</v>
       </c>
       <c r="E15">
-        <v>0.9907522648637569</v>
+        <v>0.9921937906268232</v>
       </c>
       <c r="F15">
-        <v>1.008134532000273</v>
+        <v>1.008843025894143</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042173874431828</v>
+        <v>1.042850109098462</v>
       </c>
       <c r="J15">
-        <v>1.010133253815934</v>
+        <v>1.01172439054544</v>
       </c>
       <c r="K15">
-        <v>1.022177437090364</v>
+        <v>1.023490649936253</v>
       </c>
       <c r="L15">
-        <v>1.005777802138981</v>
+        <v>1.007191681824522</v>
       </c>
       <c r="M15">
-        <v>1.022833571850752</v>
+        <v>1.023529068619623</v>
       </c>
       <c r="N15">
-        <v>1.011567758900256</v>
+        <v>1.016970017240081</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027960321237248</v>
+        <v>1.0285100289648</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026826571801144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027771306680873</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018827586387294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.982749398609386</v>
+        <v>0.9839852790428522</v>
       </c>
       <c r="D16">
-        <v>1.009235439468064</v>
+        <v>1.010225365408402</v>
       </c>
       <c r="E16">
-        <v>0.9928263959163609</v>
+        <v>0.9938946572709698</v>
       </c>
       <c r="F16">
-        <v>1.009940185585549</v>
+        <v>1.010466622716416</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042802985502267</v>
+        <v>1.04330369357791</v>
       </c>
       <c r="J16">
-        <v>1.011585527187613</v>
+        <v>1.012770148038833</v>
       </c>
       <c r="K16">
-        <v>1.023403729665866</v>
+        <v>1.02437627705466</v>
       </c>
       <c r="L16">
-        <v>1.007289328714829</v>
+        <v>1.008338022757135</v>
       </c>
       <c r="M16">
-        <v>1.02409609915232</v>
+        <v>1.024613305678761</v>
       </c>
       <c r="N16">
-        <v>1.013022094666701</v>
+        <v>1.017147069447672</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028919160400071</v>
+        <v>1.029327962686099</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027696823495936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02840098646175</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.01900365283151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9842736039126077</v>
+        <v>0.9852933899837374</v>
       </c>
       <c r="D17">
-        <v>1.010234458955927</v>
+        <v>1.011045299633686</v>
       </c>
       <c r="E17">
-        <v>0.9939874826142289</v>
+        <v>0.9948682819630434</v>
       </c>
       <c r="F17">
-        <v>1.010639580560843</v>
+        <v>1.011074659229761</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043138655015728</v>
+        <v>1.043548939625704</v>
       </c>
       <c r="J17">
-        <v>1.012349833267566</v>
+        <v>1.013328693152029</v>
       </c>
       <c r="K17">
-        <v>1.024065389500441</v>
+        <v>1.024862397230723</v>
       </c>
       <c r="L17">
-        <v>1.008101760769894</v>
+        <v>1.008966891070556</v>
       </c>
       <c r="M17">
-        <v>1.02446359614429</v>
+        <v>1.024891256489435</v>
       </c>
       <c r="N17">
-        <v>1.013787486148954</v>
+        <v>1.017270049735254</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029079410860295</v>
+        <v>1.029417469593639</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028167266446494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028747559938596</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019094397734175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9848995716300397</v>
+        <v>0.9858466847394595</v>
       </c>
       <c r="D18">
-        <v>1.010630943622093</v>
+        <v>1.011379720619444</v>
       </c>
       <c r="E18">
-        <v>0.9944304392067412</v>
+        <v>0.9952492068486878</v>
       </c>
       <c r="F18">
-        <v>1.010281280986394</v>
+        <v>1.010686710697522</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043239137557598</v>
+        <v>1.043618101291306</v>
       </c>
       <c r="J18">
-        <v>1.012545448521151</v>
+        <v>1.013455260579382</v>
       </c>
       <c r="K18">
-        <v>1.024268662028046</v>
+        <v>1.025004874385123</v>
       </c>
       <c r="L18">
-        <v>1.00834600808889</v>
+        <v>1.009150452174267</v>
       </c>
       <c r="M18">
-        <v>1.023924875033132</v>
+        <v>1.02432349249258</v>
       </c>
       <c r="N18">
-        <v>1.013983379198637</v>
+        <v>1.017257678087879</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028413267097425</v>
+        <v>1.028728434793553</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028299226280181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028835402684283</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019107617911369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9846831316531381</v>
+        <v>0.9856782475215545</v>
       </c>
       <c r="D19">
-        <v>1.010469852322614</v>
+        <v>1.011257891568913</v>
       </c>
       <c r="E19">
-        <v>0.994198208587882</v>
+        <v>0.9950601842542335</v>
       </c>
       <c r="F19">
-        <v>1.008856827285066</v>
+        <v>1.009285045452555</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043123250608333</v>
+        <v>1.043522111000188</v>
       </c>
       <c r="J19">
-        <v>1.012199453634575</v>
+        <v>1.013155586529187</v>
       </c>
       <c r="K19">
-        <v>1.024046689524915</v>
+        <v>1.024821571330691</v>
       </c>
       <c r="L19">
-        <v>1.008052759997619</v>
+        <v>1.008899729090598</v>
       </c>
       <c r="M19">
-        <v>1.022460678877439</v>
+        <v>1.02288171454168</v>
       </c>
       <c r="N19">
-        <v>1.013636892959636</v>
+        <v>1.017066185440005</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026925681285074</v>
+        <v>1.027258685515684</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028148746868015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028712888688726</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019046962514417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9820991605744503</v>
+        <v>0.9834804598478147</v>
       </c>
       <c r="D20">
-        <v>1.008729344776461</v>
+        <v>1.009840126046524</v>
       </c>
       <c r="E20">
-        <v>0.9920685723714436</v>
+        <v>0.99326974338032</v>
       </c>
       <c r="F20">
-        <v>1.004570476199439</v>
+        <v>1.005170968838142</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042395462242334</v>
+        <v>1.042957463301955</v>
       </c>
       <c r="J20">
-        <v>1.010338006718083</v>
+        <v>1.011663377355458</v>
       </c>
       <c r="K20">
-        <v>1.022620416445104</v>
+        <v>1.023712127699662</v>
       </c>
       <c r="L20">
-        <v>1.00625233498947</v>
+        <v>1.007431977670263</v>
       </c>
       <c r="M20">
-        <v>1.018533432574945</v>
+        <v>1.019123498339964</v>
       </c>
       <c r="N20">
-        <v>1.011772802575011</v>
+        <v>1.016354230167763</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023281804367838</v>
+        <v>1.023748789183552</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027144266747607</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027932816492621</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018777640849224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9768704875314542</v>
+        <v>0.9791738277226834</v>
       </c>
       <c r="D21">
-        <v>1.005277124779812</v>
+        <v>1.007129591402238</v>
       </c>
       <c r="E21">
-        <v>0.9879893015256396</v>
+        <v>0.9900051595246501</v>
       </c>
       <c r="F21">
-        <v>1.000395146030943</v>
+        <v>1.001398914254895</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041134031654269</v>
+        <v>1.042070226818707</v>
       </c>
       <c r="J21">
-        <v>1.007368116598002</v>
+        <v>1.009568847388955</v>
       </c>
       <c r="K21">
-        <v>1.02015920539718</v>
+        <v>1.021977138793313</v>
       </c>
       <c r="L21">
-        <v>1.003201849852756</v>
+        <v>1.005178393987413</v>
       </c>
       <c r="M21">
-        <v>1.015369036115003</v>
+        <v>1.016353832156136</v>
       </c>
       <c r="N21">
-        <v>1.008798694870309</v>
+        <v>1.01600102642507</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020735673310105</v>
+        <v>1.021515095061809</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025407333724356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.02670968895584</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018431217647982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.973554446021939</v>
+        <v>0.976426119586058</v>
       </c>
       <c r="D22">
-        <v>1.003088035252122</v>
+        <v>1.005399746110445</v>
       </c>
       <c r="E22">
-        <v>0.9854152139206265</v>
+        <v>0.9879332080679756</v>
       </c>
       <c r="F22">
-        <v>0.9978841373529791</v>
+        <v>0.999136863076884</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040322370810698</v>
+        <v>1.041489834431774</v>
       </c>
       <c r="J22">
-        <v>1.005500899878087</v>
+        <v>1.008237032522553</v>
       </c>
       <c r="K22">
-        <v>1.018598564778044</v>
+        <v>1.020864986596371</v>
       </c>
       <c r="L22">
-        <v>1.001281242894288</v>
+        <v>1.003747561364014</v>
       </c>
       <c r="M22">
-        <v>1.01349762674972</v>
+        <v>1.014725438292212</v>
       </c>
       <c r="N22">
-        <v>1.006928826488479</v>
+        <v>1.015732647793133</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019254534508631</v>
+        <v>1.020226294104964</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024290189720199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025908369444748</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018206392180374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9753121072329417</v>
+        <v>0.9778516614634655</v>
       </c>
       <c r="D23">
-        <v>1.004243559086505</v>
+        <v>1.006290247590554</v>
       </c>
       <c r="E23">
-        <v>0.9867774219919119</v>
+        <v>0.9890006411015506</v>
       </c>
       <c r="F23">
-        <v>0.999216429532416</v>
+        <v>1.000323669373266</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040751012757262</v>
+        <v>1.041785019114976</v>
       </c>
       <c r="J23">
-        <v>1.006487857276819</v>
+        <v>1.008911133777266</v>
       </c>
       <c r="K23">
-        <v>1.019420542037162</v>
+        <v>1.021428166375053</v>
       </c>
       <c r="L23">
-        <v>1.002296447218512</v>
+        <v>1.004475246359925</v>
       </c>
       <c r="M23">
-        <v>1.014490253284014</v>
+        <v>1.015576054139109</v>
       </c>
       <c r="N23">
-        <v>1.007917185479924</v>
+        <v>1.015786498143471</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02004015547839</v>
+        <v>1.020899518835745</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024861614452744</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026295874136794</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018317604402715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9820843113904318</v>
+        <v>0.9834700792422835</v>
       </c>
       <c r="D24">
-        <v>1.008709193476275</v>
+        <v>1.009823326439181</v>
       </c>
       <c r="E24">
-        <v>0.9920453943696514</v>
+        <v>0.9932506965655645</v>
       </c>
       <c r="F24">
-        <v>1.004369782595766</v>
+        <v>1.004972692108641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042376976056088</v>
+        <v>1.042940682047595</v>
       </c>
       <c r="J24">
-        <v>1.010289890600283</v>
+        <v>1.011619626031021</v>
       </c>
       <c r="K24">
-        <v>1.022585072851886</v>
+        <v>1.023680101949888</v>
       </c>
       <c r="L24">
-        <v>1.00621365684161</v>
+        <v>1.00739738339169</v>
       </c>
       <c r="M24">
-        <v>1.01832059207469</v>
+        <v>1.018913040853393</v>
       </c>
       <c r="N24">
-        <v>1.011724618126806</v>
+        <v>1.01632165147601</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.023071694332399</v>
+        <v>1.023540589363547</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027091546789048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027879782936849</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018765787536273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9896340252788641</v>
+        <v>0.990218999183197</v>
       </c>
       <c r="D25">
-        <v>1.013697106912899</v>
+        <v>1.014102385474986</v>
       </c>
       <c r="E25">
-        <v>0.9979509213392337</v>
+        <v>0.998464504095972</v>
       </c>
       <c r="F25">
-        <v>1.010161599819004</v>
+        <v>1.010415491485123</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04412513298107</v>
+        <v>1.04433054944017</v>
       </c>
       <c r="J25">
-        <v>1.014515353616213</v>
+        <v>1.015080076937409</v>
       </c>
       <c r="K25">
-        <v>1.026086449879277</v>
+        <v>1.026485654642272</v>
       </c>
       <c r="L25">
-        <v>1.010581130114893</v>
+        <v>1.011086703518282</v>
       </c>
       <c r="M25">
-        <v>1.022604191779041</v>
+        <v>1.022854243711189</v>
       </c>
       <c r="N25">
-        <v>1.015956081784886</v>
+        <v>1.018165049157337</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026461952477066</v>
+        <v>1.026659855742418</v>
       </c>
       <c r="Q25">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R25">
-        <v>1.029564356905642</v>
+        <v>1.0298602826273</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019343805803573</v>
       </c>
     </row>
   </sheetData>
